--- a/dataExcel/imp_kich_thuoc.xlsx
+++ b/dataExcel/imp_kich_thuoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_CWS\TestCode\DATN_CodeWalkers\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC38B9-8618-4E65-A701-C8AAEA8B813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE792052-ACA3-47F7-AC30-9FD9A3FC0168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1D9D184-C90E-403B-8883-291E02C3AA0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1D9D184-C90E-403B-8883-291E02C3AA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -59,63 +48,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Size 39</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"> Phù hợp với chân dài 24cm</t>
   </si>
   <si>
-    <t>Size 40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 25cm</t>
   </si>
   <si>
-    <t>Size 41</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 26cm</t>
   </si>
   <si>
-    <t>Size 42</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 27cm</t>
   </si>
   <si>
-    <t>Size 43</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 28cm</t>
   </si>
   <si>
-    <t>Size 44</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 29cm</t>
   </si>
   <si>
-    <t>Size 35</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 30cm</t>
   </si>
   <si>
-    <t>Size 36</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 31cm</t>
   </si>
   <si>
-    <t>Size 37</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Phù hợp với chân dài 32cm</t>
-  </si>
-  <si>
-    <t>Size 38</t>
   </si>
   <si>
     <t xml:space="preserve"> Phù hợp với chân dài 33cm</t>
@@ -503,7 +462,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,110 +473,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
